--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt5a</t>
+  </si>
+  <si>
+    <t>Fzd5</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5a</t>
-  </si>
-  <si>
-    <t>Fzd5</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H2">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I2">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J2">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.676920666666666</v>
+        <v>2.874784666666667</v>
       </c>
       <c r="N2">
-        <v>8.030761999999999</v>
+        <v>8.624354</v>
       </c>
       <c r="O2">
-        <v>0.1137411923116975</v>
+        <v>0.1187109652550681</v>
       </c>
       <c r="P2">
-        <v>0.1167596329733683</v>
+        <v>0.121184727686443</v>
       </c>
       <c r="Q2">
-        <v>0.1736982436048889</v>
+        <v>0.1972792229653333</v>
       </c>
       <c r="R2">
-        <v>1.563284192444</v>
+        <v>1.775513006688</v>
       </c>
       <c r="S2">
-        <v>0.001272331647679007</v>
+        <v>0.001422293932353883</v>
       </c>
       <c r="T2">
-        <v>0.001311881151578559</v>
+        <v>0.001451932452171068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H3">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I3">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J3">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>32.27421</v>
       </c>
       <c r="O3">
-        <v>0.4571057050773152</v>
+        <v>0.4442422727481699</v>
       </c>
       <c r="P3">
-        <v>0.4692362834442626</v>
+        <v>0.4534996302499962</v>
       </c>
       <c r="Q3">
-        <v>0.6980624741133332</v>
+        <v>0.7382617956799999</v>
       </c>
       <c r="R3">
-        <v>6.282562267019999</v>
+        <v>6.644356161119999</v>
       </c>
       <c r="S3">
-        <v>0.005113275525639819</v>
+        <v>0.005322533496945393</v>
       </c>
       <c r="T3">
-        <v>0.005272217976462039</v>
+        <v>0.005433447289754572</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H4">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I4">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J4">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.564735333333334</v>
+        <v>5.147441999999999</v>
       </c>
       <c r="N4">
-        <v>10.694206</v>
+        <v>15.442326</v>
       </c>
       <c r="O4">
-        <v>0.1514640505181089</v>
+        <v>0.2125577666737049</v>
       </c>
       <c r="P4">
-        <v>0.1554835727296605</v>
+        <v>0.2169871588243338</v>
       </c>
       <c r="Q4">
-        <v>0.2313061698191111</v>
+        <v>0.3532380598079999</v>
       </c>
       <c r="R4">
-        <v>2.081755528372</v>
+        <v>3.179142538272</v>
       </c>
       <c r="S4">
-        <v>0.001694307058358687</v>
+        <v>0.002546686577479379</v>
       </c>
       <c r="T4">
-        <v>0.001746973360995922</v>
+        <v>0.002599755791147376</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H5">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I5">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J5">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8252775</v>
+        <v>1.483016</v>
       </c>
       <c r="N5">
-        <v>3.650555</v>
+        <v>2.966032</v>
       </c>
       <c r="O5">
-        <v>0.07755524537386904</v>
+        <v>0.06123946008548931</v>
       </c>
       <c r="P5">
-        <v>0.05307559381651387</v>
+        <v>0.04167706708575228</v>
       </c>
       <c r="Q5">
-        <v>0.1184373895683333</v>
+        <v>0.101770489984</v>
       </c>
       <c r="R5">
-        <v>0.71062433741</v>
+        <v>0.6106229399040001</v>
       </c>
       <c r="S5">
-        <v>0.0008675484327812549</v>
+        <v>0.0007337191835065184</v>
       </c>
       <c r="T5">
-        <v>0.0005963436965633978</v>
+        <v>0.0004993392102153806</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H6">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I6">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J6">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.710187333333333</v>
+        <v>3.953360666666667</v>
       </c>
       <c r="N6">
-        <v>14.130562</v>
+        <v>11.860082</v>
       </c>
       <c r="O6">
-        <v>0.2001338067190093</v>
+        <v>0.1632495352375677</v>
       </c>
       <c r="P6">
-        <v>0.2054449170361947</v>
+        <v>0.1666514161534747</v>
       </c>
       <c r="Q6">
-        <v>0.3056314955604444</v>
+        <v>0.2712954223893334</v>
       </c>
       <c r="R6">
-        <v>2.750683460044</v>
+        <v>2.441658801504</v>
       </c>
       <c r="S6">
-        <v>0.002238736651900575</v>
+        <v>0.001955917239229686</v>
       </c>
       <c r="T6">
-        <v>0.002308326152488671</v>
+        <v>0.001996675686226464</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,40 +856,40 @@
         <v>16.977119</v>
       </c>
       <c r="I7">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J7">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2.676920666666666</v>
+        <v>2.874784666666667</v>
       </c>
       <c r="N7">
-        <v>8.030761999999999</v>
+        <v>8.624354</v>
       </c>
       <c r="O7">
-        <v>0.1137411923116975</v>
+        <v>0.1187109652550681</v>
       </c>
       <c r="P7">
-        <v>0.1167596329733683</v>
+        <v>0.121184727686443</v>
       </c>
       <c r="Q7">
-        <v>15.14880023718644</v>
+        <v>16.26852046179178</v>
       </c>
       <c r="R7">
-        <v>136.339202134678</v>
+        <v>146.416684156126</v>
       </c>
       <c r="S7">
-        <v>0.1109642651884424</v>
+        <v>0.1172886713227142</v>
       </c>
       <c r="T7">
-        <v>0.1144135086673631</v>
+        <v>0.119732795234272</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>16.977119</v>
       </c>
       <c r="I8">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J8">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>32.27421</v>
       </c>
       <c r="O8">
-        <v>0.4571057050773152</v>
+        <v>0.4442422727481699</v>
       </c>
       <c r="P8">
-        <v>0.4692362834442626</v>
+        <v>0.4534996302499962</v>
       </c>
       <c r="Q8">
         <v>60.88034486677667</v>
@@ -948,10 +948,10 @@
         <v>547.92310380099</v>
       </c>
       <c r="S8">
-        <v>0.4459457268422947</v>
+        <v>0.4389197392512245</v>
       </c>
       <c r="T8">
-        <v>0.4598076254242494</v>
+        <v>0.4480661829602416</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>16.977119</v>
       </c>
       <c r="I9">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J9">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.564735333333334</v>
+        <v>5.147441999999999</v>
       </c>
       <c r="N9">
-        <v>10.694206</v>
+        <v>15.442326</v>
       </c>
       <c r="O9">
-        <v>0.1514640505181089</v>
+        <v>0.2125577666737049</v>
       </c>
       <c r="P9">
-        <v>0.1554835727296605</v>
+        <v>0.2169871588243338</v>
       </c>
       <c r="Q9">
-        <v>20.17297865250156</v>
+        <v>29.129578459866</v>
       </c>
       <c r="R9">
-        <v>181.556807872514</v>
+        <v>262.166206138794</v>
       </c>
       <c r="S9">
-        <v>0.1477661410665429</v>
+        <v>0.2100110800962255</v>
       </c>
       <c r="T9">
-        <v>0.1523593440910796</v>
+        <v>0.2143874030331864</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>16.977119</v>
       </c>
       <c r="I10">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J10">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.8252775</v>
+        <v>1.483016</v>
       </c>
       <c r="N10">
-        <v>3.650555</v>
+        <v>2.966032</v>
       </c>
       <c r="O10">
-        <v>0.07755524537386904</v>
+        <v>0.06123946008548931</v>
       </c>
       <c r="P10">
-        <v>0.05307559381651387</v>
+        <v>0.04167706708575228</v>
       </c>
       <c r="Q10">
-        <v>10.32931777517417</v>
+        <v>8.392446370301336</v>
       </c>
       <c r="R10">
-        <v>61.975906651045</v>
+        <v>50.35467822180801</v>
       </c>
       <c r="S10">
-        <v>0.07566177775626916</v>
+        <v>0.0605057409019828</v>
       </c>
       <c r="T10">
-        <v>0.05200911272593879</v>
+        <v>0.0411777278755369</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>16.977119</v>
       </c>
       <c r="I11">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J11">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.710187333333333</v>
+        <v>3.953360666666667</v>
       </c>
       <c r="N11">
-        <v>14.130562</v>
+        <v>11.860082</v>
       </c>
       <c r="O11">
-        <v>0.2001338067190093</v>
+        <v>0.1632495352375677</v>
       </c>
       <c r="P11">
-        <v>0.2054449170361947</v>
+        <v>0.1666514161534747</v>
       </c>
       <c r="Q11">
-        <v>26.65513695676422</v>
+        <v>22.37222482930645</v>
       </c>
       <c r="R11">
-        <v>239.896232610878</v>
+        <v>201.350023463758</v>
       </c>
       <c r="S11">
-        <v>0.1952476525925843</v>
+        <v>0.1612936179983381</v>
       </c>
       <c r="T11">
-        <v>0.2013167838695396</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H12">
-        <v>0.153465</v>
-      </c>
-      <c r="I12">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J12">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>2.676920666666666</v>
-      </c>
-      <c r="N12">
-        <v>8.030761999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.1137411923116975</v>
-      </c>
-      <c r="P12">
-        <v>0.1167596329733683</v>
-      </c>
-      <c r="Q12">
-        <v>0.205406815055</v>
-      </c>
-      <c r="R12">
-        <v>1.23244089033</v>
-      </c>
-      <c r="S12">
-        <v>0.001504595475576066</v>
-      </c>
-      <c r="T12">
-        <v>0.001034243154426665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.153465</v>
-      </c>
-      <c r="I13">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J13">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>10.75807</v>
-      </c>
-      <c r="N13">
-        <v>32.27421</v>
-      </c>
-      <c r="O13">
-        <v>0.4571057050773152</v>
-      </c>
-      <c r="P13">
-        <v>0.4692362834442626</v>
-      </c>
-      <c r="Q13">
-        <v>0.825493606275</v>
-      </c>
-      <c r="R13">
-        <v>4.95296163765</v>
-      </c>
-      <c r="S13">
-        <v>0.006046702709380733</v>
-      </c>
-      <c r="T13">
-        <v>0.004156440043551114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.153465</v>
-      </c>
-      <c r="I14">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J14">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>3.564735333333334</v>
-      </c>
-      <c r="N14">
-        <v>10.694206</v>
-      </c>
-      <c r="O14">
-        <v>0.1514640505181089</v>
-      </c>
-      <c r="P14">
-        <v>0.1554835727296605</v>
-      </c>
-      <c r="Q14">
-        <v>0.273531053965</v>
-      </c>
-      <c r="R14">
-        <v>1.64118632379</v>
-      </c>
-      <c r="S14">
-        <v>0.002003602393207323</v>
-      </c>
-      <c r="T14">
-        <v>0.001377255277584938</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.153465</v>
-      </c>
-      <c r="I15">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J15">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.8252775</v>
-      </c>
-      <c r="N15">
-        <v>3.650555</v>
-      </c>
-      <c r="O15">
-        <v>0.07755524537386904</v>
-      </c>
-      <c r="P15">
-        <v>0.05307559381651387</v>
-      </c>
-      <c r="Q15">
-        <v>0.14005810576875</v>
-      </c>
-      <c r="R15">
-        <v>0.560232423075</v>
-      </c>
-      <c r="S15">
-        <v>0.001025919184818624</v>
-      </c>
-      <c r="T15">
-        <v>0.0004701373940116811</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.153465</v>
-      </c>
-      <c r="I16">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J16">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>4.710187333333333</v>
-      </c>
-      <c r="N16">
-        <v>14.130562</v>
-      </c>
-      <c r="O16">
-        <v>0.2001338067190093</v>
-      </c>
-      <c r="P16">
-        <v>0.2054449170361947</v>
-      </c>
-      <c r="Q16">
-        <v>0.361424449555</v>
-      </c>
-      <c r="R16">
-        <v>2.16854669733</v>
-      </c>
-      <c r="S16">
-        <v>0.002647417474524471</v>
-      </c>
-      <c r="T16">
-        <v>0.001819807014166473</v>
+        <v>0.1646547404672483</v>
       </c>
     </row>
   </sheetData>
